--- a/finance/stock_data/stock_2023.xlsx
+++ b/finance/stock_data/stock_2023.xlsx
@@ -1,96 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwang\project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46648EC-1997-4FFA-A136-5FC41DC99F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>005930.KS</t>
-  </si>
-  <si>
-    <t>000660.KS</t>
-  </si>
-  <si>
-    <t>066570.KS</t>
-  </si>
-  <si>
-    <t>035720.KS</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,46 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -432,1916 +426,2078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="19.09765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45203</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>67400</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>67700</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>66700</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>67500</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>67500</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>23361149</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45204</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>67300</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>67400</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>66700</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>66700</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>66700</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>16108313</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45205</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>67100</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>67300</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>66000</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>66000</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>66000</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>14386527</v>
       </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45209</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>66200</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>67600</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>66200</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>66400</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>66400</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>19889202</v>
       </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>68600</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>69400</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>67900</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>68200</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>68200</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>25209349</v>
       </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45211</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>68600</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>69700</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>68200</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>68900</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>68900</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>19311380</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45212</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>68000</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>68500</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>67700</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>68000</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>68000</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>9724086</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45215</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>67900</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>68500</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>66800</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>67300</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>67300</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>12599299</v>
       </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>67700</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>69900</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>67400</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>69400</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>69400</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>17299253</v>
       </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45217</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>68900</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>70500</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>68800</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>70500</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>70500</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>16493184</v>
       </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45218</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>69700</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>70000</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>69400</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>69500</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>69500</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>13985012</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45219</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>68900</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>69200</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>68100</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>68800</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>68800</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>15204495</v>
       </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>68700</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>69100</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>68200</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>68400</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>68400</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>11625959</v>
       </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45223</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>68700</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>68800</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>67700</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>68500</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>68500</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>12791710</v>
       </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45224</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>68800</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>68800</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>67900</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>68000</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>68000</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>10610703</v>
       </c>
-      <c r="H16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45225</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>67000</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>67900</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>66700</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>66700</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>66700</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>15517624</v>
       </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>67100</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>67300</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>66700</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>67300</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>67300</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>11334726</v>
       </c>
-      <c r="H18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45229</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>66800</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>67800</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>66700</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>67300</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>67300</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>10139270</v>
       </c>
-      <c r="H19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>005930.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45203</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>113000</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>116600</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>113000</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>115400</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>115400</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>4447702</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45204</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>122900</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>122900</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>118100</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>120200</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>120200</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>6112858</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45205</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>120200</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>121600</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>119000</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>120400</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>120400</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>4158083</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45209</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>122800</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>124300</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>119500</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>119500</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>119500</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>5580659</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>123000</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>123900</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>119200</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>119200</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>119200</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>4293299</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45211</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>121100</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>124200</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>120500</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>124200</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>124200</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>4016352</v>
       </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45212</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>123100</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>126300</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>122500</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>124700</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>124700</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>3205273</v>
       </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45215</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>124700</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>125200</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>122400</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>124100</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>124100</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>3008476</v>
       </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>125000</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>130800</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>123500</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>130000</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>130000</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>6411880</v>
       </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45217</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>128600</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>130700</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>127200</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>130000</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>130000</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>4760148</v>
       </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>45218</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>127600</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>128900</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>125100</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>125700</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>125700</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>5089745</v>
       </c>
-      <c r="H30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>45219</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>124300</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>127200</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>122800</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>126200</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>126200</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>3868266</v>
       </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>126800</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>127200</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>123500</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>124000</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>124000</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>2432303</v>
       </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>45223</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>125400</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>127000</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>123900</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>126800</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>126800</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>2802010</v>
       </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>45224</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>127500</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>129000</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>126100</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>127500</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>127500</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>3053002</v>
       </c>
-      <c r="H34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45225</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>122100</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>124800</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>119500</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>120000</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>120000</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>5961584</v>
       </c>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>119800</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>120900</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>117500</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>119100</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>119100</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>5486088</v>
       </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45229</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>119100</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>121700</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>118700</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>119100</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>119100</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>2798497</v>
       </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>000660.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>45203</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>98900</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>99400</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>97600</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>97900</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>97900</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>785602</v>
       </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>45204</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>98700</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>99700</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>97900</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>98600</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>98600</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>381548</v>
       </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>45205</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>99300</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>99400</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>97700</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>98200</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>98200</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>399040</v>
       </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>45209</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>99600</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>105600</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>99100</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>105100</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>105100</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>1679320</v>
       </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>104800</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>107100</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>103400</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>106600</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>106600</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>1566039</v>
       </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>45211</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>106900</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>107600</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>105300</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>106000</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>106000</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>611354</v>
       </c>
-      <c r="H43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>45212</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>105000</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>105800</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>104200</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>105100</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>105100</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>433329</v>
       </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>45215</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>104400</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>106200</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>103400</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>105500</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>105500</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>507581</v>
       </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>106500</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>108400</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>105800</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>106200</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>106200</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>540306</v>
       </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>45217</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>106000</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>107500</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>105300</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>106600</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>106600</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>441654</v>
       </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>45218</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>105000</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>107000</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>104700</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>106200</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>106200</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>411350</v>
       </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>45219</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>105500</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>106100</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>104000</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>105400</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>105400</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>473987</v>
       </c>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>105400</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>106000</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>104000</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>104400</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>104400</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>326339</v>
       </c>
-      <c r="H50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>45223</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>105500</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>106300</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>103300</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>105100</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>105100</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>384139</v>
       </c>
-      <c r="H51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>45224</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>105800</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>109500</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>105800</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>108500</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>108500</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>1039648</v>
       </c>
-      <c r="H52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>45225</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>106100</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>106900</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>104800</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>105300</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>105300</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>581477</v>
       </c>
-      <c r="H53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>106000</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>106000</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>99000</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>101600</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>101600</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>1033993</v>
       </c>
-      <c r="H54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>45229</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>101600</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>104200</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>101600</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>103100</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>103100</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>471152</v>
       </c>
-      <c r="H55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>066570.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>45203</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>43050</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>43100</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>41600</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>41600</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>41600</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>2511805</v>
       </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>45204</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>41750</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>42400</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>40700</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>40850</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>40850</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>1859309</v>
       </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>45205</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>40600</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>42100</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>40600</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>42050</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>42050</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>1130815</v>
       </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>45209</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>42100</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>42350</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>41200</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>41400</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>41400</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>1273485</v>
       </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>41900</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>43200</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>41900</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>42650</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>42650</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>1343809</v>
       </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>45211</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>42700</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>44000</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>42600</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>43650</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>43650</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>1373599</v>
       </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>45212</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>43250</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>43650</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>43050</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>43200</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>43200</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>589597</v>
       </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>45215</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>43250</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>43900</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>42400</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>43150</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>43150</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>941701</v>
       </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>43400</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>44050</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>42800</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>42800</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>42800</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>1063385</v>
       </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>45217</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>42400</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>42950</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>41800</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>41800</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>41800</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>1389354</v>
       </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>45218</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>41000</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>41400</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>40450</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>40500</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>40500</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="n">
         <v>1699061</v>
       </c>
-      <c r="H66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>45219</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>39750</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>40150</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>38850</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>39050</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>39050</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>2483524</v>
       </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>45222</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>38200</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>38900</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>37850</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>37950</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>37950</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>2585077</v>
       </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>45223</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>38300</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>39700</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>37850</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>39600</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>39600</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
         <v>2739742</v>
       </c>
-      <c r="H69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>45224</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>39600</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>39650</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>38850</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>38950</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>38950</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="n">
         <v>1422352</v>
       </c>
-      <c r="H70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>45225</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>38250</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>38500</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>37400</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>37650</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>37650</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>2073618</v>
       </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>45226</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>37650</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>38050</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>37300</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>37750</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>37750</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>1323041</v>
       </c>
-      <c r="H72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>45229</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>37650</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>38400</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>37600</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>38000</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>38000</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>1290753</v>
       </c>
-      <c r="H73" t="s">
-        <v>11</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>035720.KS</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/finance/stock_data/stock_2023.xlsx
+++ b/finance/stock_data/stock_2023.xlsx
@@ -1,40 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwang\project\finance\stock_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B89C2FC-B349-43F8-93BC-3A59E5E2A30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>005930.KS</t>
+  </si>
+  <si>
+    <t>000660.KS</t>
+  </si>
+  <si>
+    <t>066570.KS</t>
+  </si>
+  <si>
+    <t>035720.KS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +105,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,2078 +432,1913 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>45203</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>67400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>67700</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>66700</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>67500</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>67500</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>23361149</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>45204</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>67300</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>67400</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>66700</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>66700</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>66700</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>16108313</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>45205</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>67100</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>67300</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>66000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>66000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>66000</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>14386527</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <v>45209</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>66200</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>67600</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>66200</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>66400</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>66400</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>19889202</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>45210</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>68600</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>69400</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>67900</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>68200</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>68200</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>25209349</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>45211</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>68600</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>69700</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>68200</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>68900</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>68900</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>19311380</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <v>45212</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>68000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>68500</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>67700</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>68000</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>68000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>9724086</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
         <v>45215</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>67900</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>68500</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>66800</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>67300</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>67300</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>12599299</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <v>45216</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>67700</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>69900</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>67400</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>69400</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>69400</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>17299253</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <v>45217</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>68900</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>70500</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>68800</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>70500</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>70500</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>16493184</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
         <v>45218</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>69700</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>70000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>69400</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>69500</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>69500</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>13985012</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
         <v>45219</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>68900</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>69200</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>68100</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>68800</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>68800</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>15204495</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
         <v>45222</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>68700</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>69100</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>68200</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>68400</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>68400</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>11625959</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
         <v>45223</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>68700</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>68800</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>67700</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>68500</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>68500</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>12791710</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
         <v>45224</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>68800</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>68800</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>67900</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>68000</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>68000</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>10610703</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
         <v>45225</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>67000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>67900</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>66700</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>66700</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>66700</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>15517624</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
         <v>45226</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>67100</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>67300</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>66700</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>67300</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>67300</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>11334726</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
         <v>45229</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>66800</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>67800</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>66700</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>67300</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>67300</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>10139270</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>005930.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
         <v>45203</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>113000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>116600</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>113000</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>115400</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>115400</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>4447702</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
         <v>45204</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>122900</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>122900</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>118100</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>120200</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>120200</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>6112858</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
         <v>45205</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>120200</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>121600</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>119000</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>120400</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>120400</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>4158083</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
         <v>45209</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>122800</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>124300</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>119500</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>119500</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>119500</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>5580659</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
         <v>45210</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>123000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>123900</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>119200</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>119200</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>119200</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4293299</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
         <v>45211</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>121100</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>124200</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>120500</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>124200</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>124200</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>4016352</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
         <v>45212</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>123100</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>126300</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>122500</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>124700</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>124700</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3205273</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
         <v>45215</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>124700</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>125200</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>122400</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>124100</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>124100</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>3008476</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
         <v>45216</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>125000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>130800</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>123500</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>130000</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>130000</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>6411880</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
         <v>45217</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>128600</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>130700</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>127200</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>130000</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>130000</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>4760148</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
         <v>45218</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>127600</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>128900</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>125100</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>125700</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>125700</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>5089745</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
         <v>45219</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>124300</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>127200</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>122800</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>126200</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>126200</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>3868266</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
         <v>45222</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>126800</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>127200</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>123500</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>124000</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>124000</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>2432303</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
         <v>45223</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>125400</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>127000</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>123900</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>126800</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>126800</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>2802010</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
         <v>45224</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>127500</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>129000</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>126100</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>127500</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>127500</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>3053002</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
         <v>45225</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>122100</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>124800</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>119500</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>120000</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>120000</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>5961584</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
         <v>45226</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>119800</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>120900</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>117500</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>119100</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>119100</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>5486088</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
         <v>45229</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>119100</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>121700</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>118700</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>119100</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>119100</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>2798497</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>000660.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
         <v>45203</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>98900</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>99400</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>97600</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>97900</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>97900</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>785602</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
         <v>45204</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>98700</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>99700</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>97900</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>98600</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>98600</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>381548</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
         <v>45205</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>99300</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>99400</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>97700</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>98200</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>98200</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>399040</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
         <v>45209</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>99600</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>105600</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>99100</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>105100</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>105100</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>1679320</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
         <v>45210</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>104800</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>107100</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>103400</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>106600</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>106600</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>1566039</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
         <v>45211</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>106900</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>107600</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>105300</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>106000</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>106000</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>611354</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
         <v>45212</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>105000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>105800</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>104200</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>105100</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>105100</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>433329</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
         <v>45215</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>104400</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>106200</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>103400</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>105500</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>105500</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>507581</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
         <v>45216</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>106500</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>108400</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>105800</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>106200</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>106200</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>540306</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
         <v>45217</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>106000</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>107500</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>105300</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>106600</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>106600</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>441654</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
         <v>45218</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>105000</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>107000</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>104700</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>106200</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>106200</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>411350</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
         <v>45219</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>105500</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>106100</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>104000</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>105400</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>105400</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>473987</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
         <v>45222</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>105400</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>106000</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>104000</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>104400</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>104400</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>326339</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
         <v>45223</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>105500</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>106300</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>103300</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>105100</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>105100</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>384139</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
         <v>45224</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>105800</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>109500</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>105800</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>108500</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>108500</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>1039648</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
         <v>45225</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>106100</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>106900</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>104800</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>105300</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>105300</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>581477</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
         <v>45226</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>106000</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>106000</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>99000</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>101600</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>101600</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>1033993</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
         <v>45229</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>101600</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>104200</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>101600</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>103100</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>103100</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>471152</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>066570.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
         <v>45203</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>43050</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>43100</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>41600</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>41600</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>41600</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>2511805</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
         <v>45204</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>41750</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>42400</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>40700</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>40850</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>40850</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>1859309</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
         <v>45205</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>40600</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>42100</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>40600</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>42050</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>42050</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>1130815</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
         <v>45209</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>42100</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>42350</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>41200</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>41400</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>41400</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>1273485</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
         <v>45210</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>41900</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>43200</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>41900</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>42650</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>42650</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>1343809</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
         <v>45211</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>42700</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>44000</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>42600</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>43650</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>43650</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>1373599</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
         <v>45212</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>43250</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>43650</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>43050</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>43200</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>43200</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>589597</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
         <v>45215</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>43250</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>43900</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>42400</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>43150</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>43150</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>941701</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
         <v>45216</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>43400</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>44050</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>42800</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>42800</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>42800</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>1063385</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
         <v>45217</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>42400</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>42950</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>41800</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>41800</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>41800</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>1389354</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
         <v>45218</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>41000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>41400</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>40450</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>40500</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>40500</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>1699061</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
         <v>45219</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>39750</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>40150</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>38850</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>39050</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>39050</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>2483524</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
         <v>45222</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>38200</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>38900</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>37850</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>37950</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>37950</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>2585077</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
         <v>45223</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>38300</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>39700</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>37850</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>39600</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>39600</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>2739742</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
         <v>45224</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>39600</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>39650</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>38850</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>38950</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>38950</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>1422352</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
         <v>45225</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>38250</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>38500</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>37400</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>37650</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>37650</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>2073618</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
         <v>45226</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>37650</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>38050</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>37300</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>37750</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>37750</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>1323041</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
         <v>45229</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>37650</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>38400</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>37600</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>38000</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>38000</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>1290753</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>035720.KS</t>
-        </is>
+      <c r="H73" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>